--- a/Syntax_Analyzer/Drawing_JW/revise_heesang/SLR_parsing_shift_revise.xlsx
+++ b/Syntax_Analyzer/Drawing_JW/revise_heesang/SLR_parsing_shift_revise.xlsx
@@ -238,148 +238,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -772,17 +771,17 @@
   <dimension ref="A2:AK88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB54" sqref="AB54"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -805,7 +804,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -884,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="V3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>20</v>
@@ -1176,8 +1175,8 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="R28" t="s">
-        <v>51</v>
+      <c r="T28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -1185,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA29">
         <v>30</v>
@@ -1245,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
@@ -1253,19 +1252,19 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
       <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
         <v>54</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>55</v>
-      </c>
-      <c r="J33" t="s">
-        <v>56</v>
       </c>
       <c r="X33">
         <v>37</v>
@@ -1290,7 +1289,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
@@ -1313,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK39">
         <v>45</v>
@@ -1324,19 +1323,19 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
         <v>57</v>
       </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
       <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" t="s">
         <v>54</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>55</v>
-      </c>
-      <c r="J40" t="s">
-        <v>56</v>
       </c>
       <c r="X40">
         <v>37</v>
@@ -1361,7 +1360,7 @@
         <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
@@ -1369,7 +1368,7 @@
         <v>39</v>
       </c>
       <c r="R43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
@@ -1377,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="R44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
@@ -1385,7 +1384,7 @@
         <v>41</v>
       </c>
       <c r="R45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
@@ -1393,7 +1392,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD46">
         <v>7</v>
@@ -1412,7 +1411,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
@@ -1420,7 +1419,7 @@
         <v>45</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.3">
@@ -1504,7 +1503,7 @@
         <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD55">
         <v>59</v>
@@ -1526,7 +1525,7 @@
         <v>53</v>
       </c>
       <c r="Q57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA57">
         <v>60</v>
@@ -1542,7 +1541,7 @@
         <v>55</v>
       </c>
       <c r="P59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.3">
@@ -1550,7 +1549,7 @@
         <v>56</v>
       </c>
       <c r="S60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.3">
@@ -1558,7 +1557,7 @@
         <v>57</v>
       </c>
       <c r="O61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.3">
@@ -1566,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.3">
@@ -1574,7 +1573,7 @@
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.3">
@@ -1592,7 +1591,7 @@
         <v>62</v>
       </c>
       <c r="T66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.3">
@@ -1620,7 +1619,7 @@
         <v>64</v>
       </c>
       <c r="T68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.3">
@@ -1651,19 +1650,19 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" t="s">
         <v>57</v>
       </c>
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
       <c r="G70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I70" t="s">
         <v>54</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>55</v>
-      </c>
-      <c r="J70" t="s">
-        <v>56</v>
       </c>
       <c r="X70">
         <v>37</v>
@@ -1688,19 +1687,19 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" t="s">
         <v>57</v>
       </c>
-      <c r="F72" t="s">
-        <v>58</v>
-      </c>
       <c r="G72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" t="s">
         <v>54</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>55</v>
-      </c>
-      <c r="J72" t="s">
-        <v>56</v>
       </c>
       <c r="X72">
         <v>37</v>
@@ -1720,7 +1719,7 @@
         <v>69</v>
       </c>
       <c r="P73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.3">
@@ -1728,7 +1727,7 @@
         <v>70</v>
       </c>
       <c r="U74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.3">
@@ -1736,7 +1735,7 @@
         <v>71</v>
       </c>
       <c r="U75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.3">
@@ -1744,7 +1743,7 @@
         <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD76">
         <v>75</v>
@@ -1755,7 +1754,7 @@
         <v>73</v>
       </c>
       <c r="H77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH77">
         <v>76</v>
@@ -1771,7 +1770,7 @@
         <v>75</v>
       </c>
       <c r="S79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.3">
@@ -1784,7 +1783,7 @@
         <v>77</v>
       </c>
       <c r="T81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
@@ -1792,7 +1791,7 @@
         <v>78</v>
       </c>
       <c r="T82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
@@ -1800,19 +1799,19 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" t="s">
         <v>57</v>
       </c>
-      <c r="F83" t="s">
-        <v>58</v>
-      </c>
       <c r="G83" t="s">
+        <v>53</v>
+      </c>
+      <c r="I83" t="s">
         <v>54</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>55</v>
-      </c>
-      <c r="J83" t="s">
-        <v>56</v>
       </c>
       <c r="X83">
         <v>37</v>
@@ -1832,19 +1831,19 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" t="s">
         <v>57</v>
       </c>
-      <c r="F84" t="s">
-        <v>58</v>
-      </c>
       <c r="G84" t="s">
+        <v>53</v>
+      </c>
+      <c r="I84" t="s">
         <v>54</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>55</v>
-      </c>
-      <c r="J84" t="s">
-        <v>56</v>
       </c>
       <c r="X84">
         <v>37</v>
@@ -1864,7 +1863,7 @@
         <v>81</v>
       </c>
       <c r="U85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
@@ -1872,7 +1871,7 @@
         <v>82</v>
       </c>
       <c r="U86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
